--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.0230900422997</v>
+        <v>19.75670566666667</v>
       </c>
       <c r="H2">
-        <v>15.0230900422997</v>
+        <v>59.270117</v>
       </c>
       <c r="I2">
-        <v>0.0400105725883706</v>
+        <v>0.05135788836328295</v>
       </c>
       <c r="J2">
-        <v>0.0400105725883706</v>
+        <v>0.05135788836328296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>1585.187057659816</v>
+        <v>2222.893969302288</v>
       </c>
       <c r="R2">
-        <v>1585.187057659816</v>
+        <v>20006.04572372059</v>
       </c>
       <c r="S2">
-        <v>0.01258143482454398</v>
+        <v>0.01682131582465066</v>
       </c>
       <c r="T2">
-        <v>0.01258143482454398</v>
+        <v>0.01682131582465066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.0230900422997</v>
+        <v>19.75670566666667</v>
       </c>
       <c r="H3">
-        <v>15.0230900422997</v>
+        <v>59.270117</v>
       </c>
       <c r="I3">
-        <v>0.0400105725883706</v>
+        <v>0.05135788836328295</v>
       </c>
       <c r="J3">
-        <v>0.0400105725883706</v>
+        <v>0.05135788836328296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>1595.084021260566</v>
+        <v>2100.42361287084</v>
       </c>
       <c r="R3">
-        <v>1595.084021260566</v>
+        <v>18903.81251583757</v>
       </c>
       <c r="S3">
-        <v>0.01265998580810269</v>
+        <v>0.01589454532945806</v>
       </c>
       <c r="T3">
-        <v>0.01265998580810269</v>
+        <v>0.01589454532945807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.0230900422997</v>
+        <v>19.75670566666667</v>
       </c>
       <c r="H4">
-        <v>15.0230900422997</v>
+        <v>59.270117</v>
       </c>
       <c r="I4">
-        <v>0.0400105725883706</v>
+        <v>0.05135788836328295</v>
       </c>
       <c r="J4">
-        <v>0.0400105725883706</v>
+        <v>0.05135788836328296</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>1860.826595640159</v>
+        <v>2463.496333510114</v>
       </c>
       <c r="R4">
-        <v>1860.826595640159</v>
+        <v>22171.46700159102</v>
       </c>
       <c r="S4">
-        <v>0.01476915195572392</v>
+        <v>0.01864202720917423</v>
       </c>
       <c r="T4">
-        <v>0.01476915195572392</v>
+        <v>0.01864202720917423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>328.348898328081</v>
+        <v>329.6209206666667</v>
       </c>
       <c r="H5">
-        <v>328.348898328081</v>
+        <v>988.862762</v>
       </c>
       <c r="I5">
-        <v>0.8744823730588621</v>
+        <v>0.8568551220744788</v>
       </c>
       <c r="J5">
-        <v>0.8744823730588621</v>
+        <v>0.8568551220744789</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>34646.2959724667</v>
+        <v>37086.76785836957</v>
       </c>
       <c r="R5">
-        <v>34646.2959724667</v>
+        <v>333780.9107253261</v>
       </c>
       <c r="S5">
-        <v>0.2749833923909032</v>
+        <v>0.2806468701055265</v>
       </c>
       <c r="T5">
-        <v>0.2749833923909032</v>
+        <v>0.2806468701055265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>328.348898328081</v>
+        <v>329.6209206666667</v>
       </c>
       <c r="H6">
-        <v>328.348898328081</v>
+        <v>988.862762</v>
       </c>
       <c r="I6">
-        <v>0.8744823730588621</v>
+        <v>0.8568551220744788</v>
       </c>
       <c r="J6">
-        <v>0.8744823730588621</v>
+        <v>0.8568551220744789</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>34862.60680372376</v>
+        <v>35043.47216310503</v>
       </c>
       <c r="R6">
-        <v>34862.60680372376</v>
+        <v>315391.2494679453</v>
       </c>
       <c r="S6">
-        <v>0.276700224869539</v>
+        <v>0.2651846291314408</v>
       </c>
       <c r="T6">
-        <v>0.276700224869539</v>
+        <v>0.2651846291314408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>328.348898328081</v>
+        <v>329.6209206666667</v>
       </c>
       <c r="H7">
-        <v>328.348898328081</v>
+        <v>988.862762</v>
       </c>
       <c r="I7">
-        <v>0.8744823730588621</v>
+        <v>0.8568551220744788</v>
       </c>
       <c r="J7">
-        <v>0.8744823730588621</v>
+        <v>0.8568551220744789</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>40670.75155228913</v>
+        <v>41100.97823042401</v>
       </c>
       <c r="R7">
-        <v>40670.75155228913</v>
+        <v>369908.8040738161</v>
       </c>
       <c r="S7">
-        <v>0.3227987557984198</v>
+        <v>0.3110236228375115</v>
       </c>
       <c r="T7">
-        <v>0.3227987557984198</v>
+        <v>0.3110236228375116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.1060183269362</v>
+        <v>35.30925033333333</v>
       </c>
       <c r="H8">
-        <v>32.1060183269362</v>
+        <v>105.927751</v>
       </c>
       <c r="I8">
-        <v>0.0855070543527673</v>
+        <v>0.09178698956223814</v>
       </c>
       <c r="J8">
-        <v>0.0855070543527673</v>
+        <v>0.09178698956223817</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>3387.721472849362</v>
+        <v>3972.763523980464</v>
       </c>
       <c r="R8">
-        <v>3387.721472849362</v>
+        <v>35754.87171582417</v>
       </c>
       <c r="S8">
-        <v>0.02688792890933963</v>
+        <v>0.03006311180667915</v>
       </c>
       <c r="T8">
-        <v>0.02688792890933963</v>
+        <v>0.03006311180667916</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>32.1060183269362</v>
+        <v>35.30925033333333</v>
       </c>
       <c r="H9">
-        <v>32.1060183269362</v>
+        <v>105.927751</v>
       </c>
       <c r="I9">
-        <v>0.0855070543527673</v>
+        <v>0.09178698956223814</v>
       </c>
       <c r="J9">
-        <v>0.0855070543527673</v>
+        <v>0.09178698956223817</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>3408.872387464932</v>
+        <v>3753.884094048655</v>
       </c>
       <c r="R9">
-        <v>3408.872387464932</v>
+        <v>33784.9568464379</v>
       </c>
       <c r="S9">
-        <v>0.02705580111876086</v>
+        <v>0.02840678448326745</v>
       </c>
       <c r="T9">
-        <v>0.02705580111876086</v>
+        <v>0.02840678448326747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.1060183269362</v>
+        <v>35.30925033333333</v>
       </c>
       <c r="H10">
-        <v>32.1060183269362</v>
+        <v>105.927751</v>
       </c>
       <c r="I10">
-        <v>0.0855070543527673</v>
+        <v>0.09178698956223814</v>
       </c>
       <c r="J10">
-        <v>0.0855070543527673</v>
+        <v>0.09178698956223817</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>3976.79389623946</v>
+        <v>4402.768872642385</v>
       </c>
       <c r="R10">
-        <v>3976.79389623946</v>
+        <v>39624.91985378147</v>
       </c>
       <c r="S10">
-        <v>0.03156332432466681</v>
+        <v>0.03331709327229154</v>
       </c>
       <c r="T10">
-        <v>0.03156332432466681</v>
+        <v>0.03331709327229155</v>
       </c>
     </row>
   </sheetData>
